--- a/media/supported_tf.xlsx
+++ b/media/supported_tf.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Profiles\MobilintCI\Documents\Compiler_Suite_Guide\media\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Manual\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C00FEB2-7260-4862-9E06-2F718F3E9557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BB855E-57F2-43BE-A729-67816370822E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{82FA91C1-AFA3-4631-B311-4F4CA060295C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>API Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Only zero-padding</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Only along height, width, and channel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -63,17 +59,6 @@
   </si>
   <si>
     <t>Only constant division</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Supported in ASIC
-Unsupported in FPGA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only beta=1
-Supported in ASIC
-Unsupported in FPGA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -235,6 +220,10 @@
   </si>
   <si>
     <t>tf.raw_ops.ConcatV2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only beta=1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -293,7 +282,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -309,7 +298,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -607,14 +596,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{456629B3-8544-4598-9B44-E584E1332484}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="113.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.625" customWidth="1"/>
+    <col min="2" max="2" width="100.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -627,229 +616,218 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="B27" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B33" s="2"/>
     </row>
     <row r="34" spans="1:2" ht="66" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/media/supported_tf.xlsx
+++ b/media/supported_tf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Manual\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BB855E-57F2-43BE-A729-67816370822E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9791ACA-A307-421B-BE80-04A330420259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{82FA91C1-AFA3-4631-B311-4F4CA060295C}"/>
   </bookViews>
@@ -46,43 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Only along height, width, and channel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only along channel axis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only constant multiplication</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only constant division</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only channel-wise flatten and before fully connected layer or Conv w/ 1x1 kernel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only before fully connected layer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only when resulting tensor has 2D shape
-Squeeze along batch axis is unsupported</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ellipsis_mask, new_axis_mask, shrink_axis_mask are unsupported</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Batch-wise tile is unsupported</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/placeholder;tf.placeholder&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -223,7 +186,44 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Only beta=1</t>
+    <t>Only along channel axis.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only along height, width, and channel.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only constant division.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only constant multiplication.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only beta=1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only channel-wise flatten and before fully connected layer or Conv w/ 1x1 kernel.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only before fully connected layer.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only when resulting tensor has 2D shape.
+Squeeze along batch axis is unsupported.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ellipsis_mask, new_axis_mask, shrink_axis_mask are unsupported.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Batch-wise tile is unsupported.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -596,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{456629B3-8544-4598-9B44-E584E1332484}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -616,218 +616,218 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/media/supported_tf.xlsx
+++ b/media/supported_tf.xlsx
@@ -1,37 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Manual\media\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9791ACA-A307-421B-BE80-04A330420259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{82FA91C1-AFA3-4631-B311-4F4CA060295C}"/>
+    <workbookView windowWidth="21540" windowHeight="8700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -39,224 +17,512 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>API Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Comments</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/placeholder;tf.placeholder&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/constant;tf.constant&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/identity;tf.identity&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/identity_n;tf.identity_n&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/pad;tf.pad&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/nn/conv2d;tf.nn.conv2d&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/nn/depthwise_conv2d;tf.nn.depthwise_conv2d&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/nn/conv2d_backprop_input;tf.nn.conv2d_backprop_input&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/linalg/matmul;tf.linalg.matmul&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/nn/fused_batch_norm;tf.nn.fused_batch_norm&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/nn/max_pool2d;tf.nn.max_pool2d&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/nn/avg_pool;tf.nn.avg_pool&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/math/reduce_mean;tf.math.reduce_mean&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only along height, width, and channel</t>
   </si>
   <si>
     <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/image/resize_nearest_neighbor;tf.image.resize_nearest_neighbor&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tf.raw_ops.ConcatV2</t>
+  </si>
+  <si>
+    <t>Only along channel axis</t>
   </si>
   <si>
     <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/math/add_n;tf.math.add_n&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/nn/bias_add;tf.nn.bias_add&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/math/multiply;tf.math.multiply&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only constant multiplication</t>
   </si>
   <si>
     <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/realdiv;tf.realdiv&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only constant division</t>
   </si>
   <si>
     <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/math/subtract;tf.math.subtract&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/nn/relu;tf.nn.relu&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/nn/leaky_relu;tf.nn.leaky_relu&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/nn/relu6#args;tf.nn.relu6v&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/math/sigmoid;tf.math.sigmoid&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/math/softplus;tf.math.softplus&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/math/tanh;tf.math.tanh&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only beta=1</t>
   </si>
   <si>
     <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/math/exp;tf.math.exp&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/switch_case;tf.switch_case&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/shape;tf.shape&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/reshape;tf.reshape&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only channel-wise flatten and before fully connected layer or Conv w/ 1x1 kernel</t>
   </si>
   <si>
     <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/transpose;tf.transpose&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only before fully connected layer</t>
   </si>
   <si>
     <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/expand_dims;tf.expand_dims&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/squeeze;tf.squeeze&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only when resulting tensor has 2D shape
+Squeeze along batch axis is unsupported</t>
   </si>
   <si>
     <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/strided_slice;tf.strided_slice&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ellipsis_mask, new_axis_mask, shrink_axis_mask are unsupported</t>
   </si>
   <si>
     <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/tile;tf.tile&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tf.raw_ops.ConcatV2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only along channel axis.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only along height, width, and channel.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only constant division.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only constant multiplication.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only beta=1.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only channel-wise flatten and before fully connected layer or Conv w/ 1x1 kernel.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only before fully connected layer.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only when resulting tensor has 2D shape.
-Squeeze along batch axis is unsupported.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ellipsis_mask, new_axis_mask, shrink_axis_mask are unsupported.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Batch-wise tile is unsupported.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Batch-wise tile is unsupported</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
+      <name val="Calibri"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -264,34 +530,320 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -340,7 +892,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -373,26 +925,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -425,23 +960,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -583,30 +1101,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{456629B3-8544-4598-9B44-E584E1332484}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="50.625" customWidth="1"/>
-    <col min="2" max="2" width="100.625" customWidth="1"/>
+    <col min="1" max="1" width="50.6222222222222" customWidth="1"/>
+    <col min="2" max="2" width="100.622222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -614,224 +1127,224 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="B32" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" ht="30" spans="1:2">
+      <c r="A34" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="2" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="2" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/media/supported_tf.xlsx
+++ b/media/supported_tf.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Manual\media\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jinman\Desktop\workspace\Manual\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9791ACA-A307-421B-BE80-04A330420259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F954286-8614-43FE-9C5F-A9EB7DF6A934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{82FA91C1-AFA3-4631-B311-4F4CA060295C}"/>
+    <workbookView xWindow="29445" yWindow="1740" windowWidth="14340" windowHeight="11295" xr2:uid="{82FA91C1-AFA3-4631-B311-4F4CA060295C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$53</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>API Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,146 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/placeholder;tf.placeholder&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/constant;tf.constant&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/identity;tf.identity&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/identity_n;tf.identity_n&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/pad;tf.pad&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/nn/conv2d;tf.nn.conv2d&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/nn/depthwise_conv2d;tf.nn.depthwise_conv2d&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/nn/conv2d_backprop_input;tf.nn.conv2d_backprop_input&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/linalg/matmul;tf.linalg.matmul&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/nn/fused_batch_norm;tf.nn.fused_batch_norm&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/nn/max_pool2d;tf.nn.max_pool2d&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/nn/avg_pool;tf.nn.avg_pool&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/math/reduce_mean;tf.math.reduce_mean&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/image/resize_nearest_neighbor;tf.image.resize_nearest_neighbor&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/math/add_n;tf.math.add_n&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/nn/bias_add;tf.nn.bias_add&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/math/multiply;tf.math.multiply&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/realdiv;tf.realdiv&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/math/subtract;tf.math.subtract&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/nn/relu;tf.nn.relu&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/nn/leaky_relu;tf.nn.leaky_relu&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/nn/relu6#args;tf.nn.relu6v&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/math/sigmoid;tf.math.sigmoid&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/math/softplus;tf.math.softplus&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/math/tanh;tf.math.tanh&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/math/exp;tf.math.exp&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/switch_case;tf.switch_case&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/shape;tf.shape&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/reshape;tf.reshape&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/transpose;tf.transpose&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/expand_dims;tf.expand_dims&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/squeeze;tf.squeeze&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/strided_slice;tf.strided_slice&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@&lt;link:https://www.tensorflow.org/versions/r1.15/api_docs/python/tf/tile;tf.tile&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tf.raw_ops.ConcatV2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Only along channel axis.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -199,10 +62,6 @@
   </si>
   <si>
     <t>Only constant multiplication.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only beta=1.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -224,6 +83,278 @@
   </si>
   <si>
     <t>Batch-wise tile is unsupported.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/Placeholder;Placeholder&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>According to the official document, this operation will fail with an error if it is executed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/Identity;Identity&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/Floor;Floor&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/Const;Const&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/IdentityN;IdentityN&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/Pad;Pad&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/PadV2;PadV2&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/Conv2D;Conv2D&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/DepthwiseConv2dNative;DepthwiseConv2dNative&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/Conv2DBackpropInput;Conv2DBackpropInput&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/MatMul;MatMul&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/FusedBatchNormV3;FusedBatchNormV3&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/FusedBatchNorm;FusedBatchNorm&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/MaxPool;MaxPool&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/AvgPool;AvgPool&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/Mean;Mean&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/ResizeNearestNeighbor;ResizeNearestNeighbor&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/ResizeBilinear;ResizeBilinear&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/ConcatV2;ConcatV2&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/Add;Add&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/Mul;Mul&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/Sub;Sub&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/RealDiv;RealDiv&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/AddN;AddN&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/BiasAdd;BiasAdd&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/Relu;Relu&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/Sigmoid;Sigmoid&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/Softplus;Softplus&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/Exp;Exp&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/Tanh;Tanh&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/Neg;Neg&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/LeakyRelu;LeakyRelu&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/Relu6;Relu6&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/Softmax;Softmax&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/ArgMax;ArgMax&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/Switch;Switch&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/Merge;Merge&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/Shape;Shape&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/Reshape;Reshape&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/Transpose;Transpose&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/ExpandDims;ExpandDims&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/Squeeze;Squeeze&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/StridedSlice;StridedSlice&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/Slice;Slice&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/Pack;Pack&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/Split;Split&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/SplitV;SplitV&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/Range;Range&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/Fill;Fill&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/Tile;Tile&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/Cast;Cast&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/TensorArrayV3;TensorArrayV3&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/Maximum;Maximum&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/Sqrt;Sqrt&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/Rsqrt;Rsqrt&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/Rint;Rint&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/Greater;Greater&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/LogicalAnd;LogicalAnd&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/Equal;Equal&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/GreaterEqual;GreaterEqual&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/RandomUniform;RandomUniform&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/NoOp;NoOp&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/Assert;Assert&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/ReadFile;ReadFile&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/DecodeJpeg;DecodeJpeg&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/PlaceholderWithDefault;PlaceholderWithDefault&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@&lt;link:https://www.tensorflow.org/versions/r2.9/api_docs/python/tf/raw_ops/AddV2;AddV2&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -274,15 +405,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -298,7 +429,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -594,243 +725,394 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{456629B3-8544-4598-9B44-E584E1332484}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.625" customWidth="1"/>
-    <col min="2" max="2" width="100.625" customWidth="1"/>
+    <col min="1" max="1" width="50.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="100.625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="22" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    </row>
+    <row r="27" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="43" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="44" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="46" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="47" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>46</v>
+    </row>
+    <row r="54" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B53" xr:uid="{456629B3-8544-4598-9B44-E584E1332484}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
